--- a/tests/data.gui/test/spectrophotometry/dsl.5/kev.constants.data.xlsx
+++ b/tests/data.gui/test/spectrophotometry/dsl.5/kev.constants.data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -320,10 +320,13 @@
     <t xml:space="preserve">7.23157958984375</t>
   </si>
   <si>
-    <t xml:space="preserve">0.26055114874183</t>
+    <t xml:space="preserve">0.26055114900882</t>
   </si>
   <si>
     <t xml:space="preserve">Adj. R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.995164</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1051,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0.995163638593372</v>
+      <c r="A2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7712.53564654825</v>
+        <v>7712.53564654823</v>
       </c>
     </row>
     <row r="3">
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2100.9035374316</v>
+        <v>2100.90353743161</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1239,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11578.0579208356</v>
+        <v>11578.0579208357</v>
       </c>
     </row>
     <row r="5">
@@ -1256,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>159.57579877169</v>
+        <v>159.575798771701</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>108.882155009452</v>
+        <v>108.882155009459</v>
       </c>
     </row>
     <row r="6">
@@ -1300,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>86.7793793985462</v>
+        <v>86.7793793985436</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1327,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>59.211521496534</v>
+        <v>59.2115214965324</v>
       </c>
     </row>
     <row r="7">
@@ -1344,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>138.991420194587</v>
+        <v>138.991420194589</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>94.8369707380445</v>
+        <v>94.8369707380462</v>
       </c>
     </row>
   </sheetData>
@@ -2180,16 +2183,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.47187832703199e-08</v>
+        <v>0.0000000547187832703199</v>
       </c>
       <c r="B2" t="n">
-        <v>4.5380888097386e-06</v>
+        <v>0.0000045380888097386</v>
       </c>
       <c r="C2" t="n">
-        <v>9.94577215552286e-05</v>
+        <v>0.0000994577215552286</v>
       </c>
       <c r="D2" t="n">
-        <v>5.86196203125795e-23</v>
+        <v>0.0000000000000000000000586196203125795</v>
       </c>
       <c r="E2" t="n">
         <v>0.0749910479358568</v>
@@ -2198,36 +2201,36 @@
         <v>0.0175043445946905</v>
       </c>
       <c r="G2" t="n">
-        <v>6.93876670958295e-08</v>
+        <v>0.0000000693876670958295</v>
       </c>
       <c r="H2" t="n">
-        <v>5.66307643876906e-22</v>
+        <v>0.000000000000000000000566307643876906</v>
       </c>
       <c r="I2" t="n">
-        <v>3.55786000551281e-24</v>
+        <v>0.00000000000000000000000355786000551281</v>
       </c>
       <c r="J2" t="n">
-        <v>1.86168658496889e-25</v>
+        <v>0.000000000000000000000000186168658496889</v>
       </c>
       <c r="K2" t="n">
-        <v>2.27844477128857e-09</v>
+        <v>0.00000000227844477128857</v>
       </c>
       <c r="L2" t="n">
-        <v>9.93713287071996e-20</v>
+        <v>0.0000000000000000000993713287071996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.47188467917732e-08</v>
+        <v>0.0000000547188467917732</v>
       </c>
       <c r="B3" t="n">
-        <v>4.35655442744215e-06</v>
+        <v>0.00000435655442744215</v>
       </c>
       <c r="C3" t="n">
-        <v>8.43367937095798e-05</v>
+        <v>0.0000843367937095798</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05194180355094e-08</v>
+        <v>0.0000000105194180355094</v>
       </c>
       <c r="E3" t="n">
         <v>0.0719913106288204</v>
@@ -2236,36 +2239,36 @@
         <v>0.0168041680525959</v>
       </c>
       <c r="G3" t="n">
-        <v>6.66122268061152e-08</v>
+        <v>0.0000000666122268061152</v>
       </c>
       <c r="H3" t="n">
-        <v>9.75600005727333e-08</v>
+        <v>0.0000000975600005727333</v>
       </c>
       <c r="I3" t="n">
-        <v>6.12926968004931e-10</v>
+        <v>0.000000000612926968004931</v>
       </c>
       <c r="J3" t="n">
-        <v>3.34083308620055e-11</v>
+        <v>0.0000000000334083308620055</v>
       </c>
       <c r="K3" t="n">
-        <v>1.93204432647425e-09</v>
+        <v>0.00000000193204432647425</v>
       </c>
       <c r="L3" t="n">
-        <v>1.51212742460937e-05</v>
+        <v>0.0000151212742460937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.92615099379102e-08</v>
+        <v>0.0000000392615099379102</v>
       </c>
       <c r="B4" t="n">
-        <v>6.39355686412192e-06</v>
+        <v>0.00000639355686412192</v>
       </c>
       <c r="C4" t="n">
-        <v>6.92649907479623e-05</v>
+        <v>0.0000692649907479623</v>
       </c>
       <c r="D4" t="n">
-        <v>2.55751961680269e-08</v>
+        <v>0.0000000255751961680269</v>
       </c>
       <c r="E4" t="n">
         <v>0.075807038382683</v>
@@ -2274,36 +2277,36 @@
         <v>0.01269628106</v>
       </c>
       <c r="G4" t="n">
-        <v>3.61113334738783e-08</v>
+        <v>0.0000000361113334738783</v>
       </c>
       <c r="H4" t="n">
-        <v>2.49763230809094e-07</v>
+        <v>0.000000249763230809094</v>
       </c>
       <c r="I4" t="n">
-        <v>1.12588880656083e-09</v>
+        <v>0.00000000112588880656083</v>
       </c>
       <c r="J4" t="n">
-        <v>1.13201446318574e-10</v>
+        <v>0.000000000113201446318574</v>
       </c>
       <c r="K4" t="n">
-        <v>1.58676926773766e-09</v>
+        <v>0.00000000158676926773766</v>
       </c>
       <c r="L4" t="n">
-        <v>3.01934224827701e-05</v>
+        <v>0.0000301934224827701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.47190906314878e-08</v>
+        <v>0.0000000547190906314878</v>
       </c>
       <c r="B5" t="n">
-        <v>3.99347093681678e-06</v>
+        <v>0.00000399347093681678</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4226516884941e-05</v>
+        <v>0.000054226516884941</v>
       </c>
       <c r="D5" t="n">
-        <v>4.89391930937745e-08</v>
+        <v>0.0000000489391930937745</v>
       </c>
       <c r="E5" t="n">
         <v>0.0659917126325979</v>
@@ -2312,36 +2315,36 @@
         <v>0.0154038141706632</v>
       </c>
       <c r="G5" t="n">
-        <v>6.10614540667488e-08</v>
+        <v>0.0000000610614540667488</v>
       </c>
       <c r="H5" t="n">
-        <v>4.16050649069325e-07</v>
+        <v>0.000000416050649069325</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6138765657083e-09</v>
+        <v>0.0000000026138765657083</v>
       </c>
       <c r="J5" t="n">
-        <v>1.55423946807602e-10</v>
+        <v>0.000000000155423946807602</v>
       </c>
       <c r="K5" t="n">
-        <v>1.24225773453977e-09</v>
+        <v>0.00000000124225773453977</v>
       </c>
       <c r="L5" t="n">
-        <v>4.52322408573243e-05</v>
+        <v>0.0000452322408573243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.47193591873949e-08</v>
+        <v>0.0000000547193591873949</v>
       </c>
       <c r="B6" t="n">
-        <v>3.81191097453199e-06</v>
+        <v>0.00000381191097453199</v>
       </c>
       <c r="C6" t="n">
-        <v>3.93411571106341e-05</v>
+        <v>0.0000393411571106341</v>
       </c>
       <c r="D6" t="n">
-        <v>8.96555921478629e-08</v>
+        <v>0.0000000896555921478629</v>
       </c>
       <c r="E6" t="n">
         <v>0.0629917613517807</v>
@@ -2350,112 +2353,112 @@
         <v>0.0147036364058358</v>
       </c>
       <c r="G6" t="n">
-        <v>5.82862020731051e-08</v>
+        <v>0.0000000582862020731051</v>
       </c>
       <c r="H6" t="n">
-        <v>7.27547135886137e-07</v>
+        <v>0.000000727547135886137</v>
       </c>
       <c r="I6" t="n">
-        <v>4.57090439984081e-09</v>
+        <v>0.00000000457090439984081</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84732066768178e-10</v>
+        <v>0.000000000284732066768178</v>
       </c>
       <c r="K6" t="n">
-        <v>9.01253842472067e-10</v>
+        <v>0.000000000901253842472067</v>
       </c>
       <c r="L6" t="n">
-        <v>6.01179416355235e-05</v>
+        <v>0.0000601179416355235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.47199419694346e-08</v>
+        <v>0.0000000547199414959177</v>
       </c>
       <c r="B7" t="n">
-        <v>3.63031238089076e-06</v>
+        <v>0.0000036303124123321</v>
       </c>
       <c r="C7" t="n">
-        <v>2.48371371096686e-05</v>
+        <v>0.000024837137109675</v>
       </c>
       <c r="D7" t="n">
-        <v>1.76273679748465e-07</v>
+        <v>0.000000176273679748404</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0599914867330603</v>
+        <v>0.0599914867334993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0140034567071268</v>
+        <v>0.0140034565860509</v>
       </c>
       <c r="G7" t="n">
-        <v>5.55112339393341e-08</v>
+        <v>0.0000000555112329790116</v>
       </c>
       <c r="H7" t="n">
-        <v>1.36231361038035e-06</v>
+        <v>0.00000136231361038985</v>
       </c>
       <c r="I7" t="n">
-        <v>8.55899403417577e-09</v>
+        <v>0.00000000855899396017053</v>
       </c>
       <c r="J7" t="n">
-        <v>5.59811534384838e-10</v>
+        <v>0.000000000559811539228953</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6898593991898e-10</v>
+        <v>0.000000000568985939919126</v>
       </c>
       <c r="L7" t="n">
-        <v>7.46222939043917e-05</v>
+        <v>0.0000746222939043851</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.47217291261951e-08</v>
+        <v>0.0000000547217288450527</v>
       </c>
       <c r="B8" t="n">
-        <v>3.44856780317858e-06</v>
+        <v>0.00000344856782089195</v>
       </c>
       <c r="C8" t="n">
-        <v>1.17386599849916e-05</v>
+        <v>0.0000117386599849993</v>
       </c>
       <c r="D8" t="n">
-        <v>4.38435602119828e-07</v>
+        <v>0.000000438435602119503</v>
       </c>
       <c r="E8" t="n">
-        <v>0.056989990054069</v>
+        <v>0.056989990053999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0133032696222434</v>
+        <v>0.0133032695538792</v>
       </c>
       <c r="G8" t="n">
-        <v>5.27373381042248e-08</v>
+        <v>0.0000000527373375622653</v>
       </c>
       <c r="H8" t="n">
-        <v>3.21887709067146e-06</v>
+        <v>0.00000321887709066512</v>
       </c>
       <c r="I8" t="n">
-        <v>2.02238672520308e-08</v>
+        <v>0.0000000202238671480872</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3923422466421e-09</v>
+        <v>0.00000000139234225379447</v>
       </c>
       <c r="K8" t="n">
-        <v>2.68917164464567e-10</v>
+        <v>0.000000000268917164464743</v>
       </c>
       <c r="L8" t="n">
-        <v>8.77210710978437e-05</v>
+        <v>0.0000877210710978362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.47282819849001e-08</v>
+        <v>0.0000000547282819849001</v>
       </c>
       <c r="B9" t="n">
-        <v>3.2662709549236e-06</v>
+        <v>0.0000032662709549236</v>
       </c>
       <c r="C9" t="n">
-        <v>4.01617018941112e-06</v>
+        <v>0.00000401617018941112</v>
       </c>
       <c r="D9" t="n">
-        <v>1.39429843837192e-06</v>
+        <v>0.00000139429843837192</v>
       </c>
       <c r="E9" t="n">
         <v>0.053983871120234</v>
@@ -2464,36 +2467,36 @@
         <v>0.0126030552222415</v>
       </c>
       <c r="G9" t="n">
-        <v>4.99675038147819e-08</v>
+        <v>0.0000000499675038147819</v>
       </c>
       <c r="H9" t="n">
-        <v>9.69660634967839e-06</v>
+        <v>0.00000969660634967839</v>
       </c>
       <c r="I9" t="n">
-        <v>6.09300564020747e-08</v>
+        <v>0.0000000609300564020747</v>
       </c>
       <c r="J9" t="n">
-        <v>4.42735071127429e-09</v>
+        <v>0.00000000442735071127429</v>
       </c>
       <c r="K9" t="n">
-        <v>9.20051437493218e-11</v>
+        <v>0.0000000000920051437493218</v>
       </c>
       <c r="L9" t="n">
-        <v>9.5443737805445e-05</v>
+        <v>0.000095443737805445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.47405694405837e-08</v>
+        <v>0.0000000547405694405837</v>
       </c>
       <c r="B10" t="n">
-        <v>3.08340794404202e-06</v>
+        <v>0.00000308340794404202</v>
       </c>
       <c r="C10" t="n">
-        <v>1.79914753643958e-06</v>
+        <v>0.00000179914753643958</v>
       </c>
       <c r="D10" t="n">
-        <v>3.18473982851578e-06</v>
+        <v>0.00000318473982851578</v>
       </c>
       <c r="E10" t="n">
         <v>0.0509730121163961</v>
@@ -2502,36 +2505,36 @@
         <v>0.01190281294692</v>
       </c>
       <c r="G10" t="n">
-        <v>4.72018390362189e-08</v>
+        <v>0.0000000472018390362189</v>
       </c>
       <c r="H10" t="n">
-        <v>2.09128998213278e-05</v>
+        <v>0.0000209128998213278</v>
       </c>
       <c r="I10" t="n">
-        <v>1.31438794695321e-07</v>
+        <v>0.000000131438794695321</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0110314105068e-08</v>
+        <v>0.000000010110314105068</v>
       </c>
       <c r="K10" t="n">
-        <v>4.12160889378627e-11</v>
+        <v>0.0000000000412160889378627</v>
       </c>
       <c r="L10" t="n">
-        <v>9.76608112479398e-05</v>
+        <v>0.0000976608112479398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.47555173870333e-08</v>
+        <v>0.0000000547555173870333</v>
       </c>
       <c r="B11" t="n">
-        <v>2.90042553082539e-06</v>
+        <v>0.00000290042553082539</v>
       </c>
       <c r="C11" t="n">
-        <v>1.07651451665507e-06</v>
+        <v>0.00000107651451665507</v>
       </c>
       <c r="D11" t="n">
-        <v>5.36194821324904e-06</v>
+        <v>0.00000536194821324904</v>
       </c>
       <c r="E11" t="n">
         <v>0.0479611520269786</v>
@@ -2540,36 +2543,36 @@
         <v>0.0112025655369183</v>
       </c>
       <c r="G11" t="n">
-        <v>4.44370663854658e-08</v>
+        <v>0.0000000444370663854658</v>
       </c>
       <c r="H11" t="n">
-        <v>3.31292970894776e-05</v>
+        <v>0.0000331292970894776</v>
       </c>
       <c r="I11" t="n">
-        <v>2.08276422082645e-07</v>
+        <v>0.000000208276422082645</v>
       </c>
       <c r="J11" t="n">
-        <v>1.70174595974177e-08</v>
+        <v>0.0000000170174595974177</v>
       </c>
       <c r="K11" t="n">
-        <v>2.46615228394004e-11</v>
+        <v>0.0000000000246615228394004</v>
       </c>
       <c r="L11" t="n">
-        <v>9.83834608219999e-05</v>
+        <v>0.0000983834608219999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.47725668352369e-08</v>
+        <v>0.0000000547725668352369</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7174339715473e-06</v>
+        <v>0.0000027174339715473</v>
       </c>
       <c r="C12" t="n">
-        <v>7.3837066034711e-07</v>
+        <v>0.00000073837066034711</v>
       </c>
       <c r="D12" t="n">
-        <v>7.84437268722123e-06</v>
+        <v>0.00000784437268722123</v>
       </c>
       <c r="E12" t="n">
         <v>0.0449492132181671</v>
@@ -2578,22 +2581,22 @@
         <v>0.0105023185838084</v>
       </c>
       <c r="G12" t="n">
-        <v>4.16723778521254e-08</v>
+        <v>0.0000000416723778521254</v>
       </c>
       <c r="H12" t="n">
-        <v>4.54234705581951e-05</v>
+        <v>0.0000454234705581951</v>
       </c>
       <c r="I12" t="n">
-        <v>2.85656037258987e-07</v>
+        <v>0.000000285656037258987</v>
       </c>
       <c r="J12" t="n">
-        <v>2.48882938020392e-08</v>
+        <v>0.0000000248882938020392</v>
       </c>
       <c r="K12" t="n">
-        <v>1.69150946154197e-11</v>
+        <v>0.0000000000169150946154197</v>
       </c>
       <c r="L12" t="n">
-        <v>9.87216124245581e-05</v>
+        <v>0.0000987216124245581</v>
       </c>
     </row>
   </sheetData>
@@ -2668,28 +2671,28 @@
         <v>1.53978923528262</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37202431907384</v>
+        <v>1.37202431907383</v>
       </c>
       <c r="G2" t="n">
         <v>1.20596749987659</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04416479819854</v>
+        <v>1.04416479819855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.898041931124439</v>
+        <v>0.898041931124438</v>
       </c>
       <c r="J2" t="n">
-        <v>0.811892042160902</v>
+        <v>0.811892042160901</v>
       </c>
       <c r="K2" t="n">
-        <v>0.787159571104182</v>
+        <v>0.787159571104181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.779098083671893</v>
+        <v>0.779098083671892</v>
       </c>
       <c r="M2" t="n">
-        <v>0.775325847455813</v>
+        <v>0.775325847455812</v>
       </c>
     </row>
     <row r="3">
@@ -2700,16 +2703,16 @@
         <v>329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.862219897035732</v>
+        <v>0.862219897035733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.908205747713044</v>
+        <v>0.908205747713045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.954042199517177</v>
+        <v>0.954042199517178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999777290679491</v>
+        <v>0.999777290679492</v>
       </c>
       <c r="G3" t="n">
         <v>1.04504673041538</v>
@@ -2741,7 +2744,7 @@
         <v>414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208951079040268</v>
+        <v>0.208951079040269</v>
       </c>
       <c r="D4" t="n">
         <v>0.352258457298209</v>
@@ -2753,10 +2756,10 @@
         <v>0.637626185681457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.778700986477892</v>
+        <v>0.778700986477893</v>
       </c>
       <c r="H4" t="n">
-        <v>0.916161670223978</v>
+        <v>0.916161670223974</v>
       </c>
       <c r="I4" t="n">
         <v>1.04030143433567</v>
@@ -2782,37 +2785,37 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0113892893381022</v>
+        <v>-0.0113892893381018</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0140740386105755</v>
+        <v>-0.0140740386105753</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00621076471737569</v>
+        <v>-0.00621076471737592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0120243190738349</v>
+        <v>0.0120243190738347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0219674998765895</v>
+        <v>0.0219674998765889</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0351647981985432</v>
+        <v>0.0351647981985541</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0420419311244388</v>
+        <v>0.0420419311244379</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.013107957839098</v>
+        <v>-0.0131079578390991</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0218404288958181</v>
+        <v>-0.0218404288958192</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0249019163281067</v>
+        <v>-0.0249019163281078</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0196741525441873</v>
+        <v>-0.0196741525441884</v>
       </c>
     </row>
     <row r="6">
@@ -2823,37 +2826,37 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0182198970357321</v>
+        <v>0.018219897035733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00220574771304427</v>
+        <v>0.00220574771304494</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00495780048282279</v>
+        <v>-0.00495780048282224</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0112227093205085</v>
+        <v>-0.0112227093205082</v>
       </c>
       <c r="G6" t="n">
         <v>-0.0119532695846152</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0228435625088874</v>
+        <v>-0.0228435625088863</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00800840032147998</v>
+        <v>-0.00800840032147754</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0114772790113018</v>
+        <v>0.0114772790113016</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0162197007589242</v>
+        <v>0.0162197007589238</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00641737635331086</v>
+        <v>0.00641737635331041</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00444574134591158</v>
+        <v>0.00444574134591114</v>
       </c>
     </row>
     <row r="7">
@@ -2864,37 +2867,37 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00395107904026834</v>
+        <v>0.00395107904026903</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00425845729820862</v>
+        <v>0.00425845729820923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00210025841633454</v>
+        <v>0.0021002584163351</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00637381431854311</v>
+        <v>-0.00637381431854256</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00529901352210793</v>
+        <v>-0.00529901352210749</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0198383297760221</v>
+        <v>-0.019838329776026</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00169856566433335</v>
+        <v>-0.00169856566432958</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0374907106503541</v>
+        <v>0.0374907106503544</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0295023646481125</v>
+        <v>0.0295023646481127</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00564893899448271</v>
+        <v>-0.00564893899448249</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0384442077779192</v>
+        <v>-0.038444207777919</v>
       </c>
     </row>
   </sheetData>
@@ -2969,28 +2972,28 @@
         <v>1.53978923528262</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37202431907384</v>
+        <v>1.37202431907383</v>
       </c>
       <c r="G2" t="n">
         <v>1.20596749987659</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04416479819854</v>
+        <v>1.04416479819855</v>
       </c>
       <c r="I2" t="n">
-        <v>0.898041931124439</v>
+        <v>0.898041931124438</v>
       </c>
       <c r="J2" t="n">
-        <v>0.811892042160902</v>
+        <v>0.811892042160901</v>
       </c>
       <c r="K2" t="n">
-        <v>0.787159571104182</v>
+        <v>0.787159571104181</v>
       </c>
       <c r="L2" t="n">
-        <v>0.779098083671893</v>
+        <v>0.779098083671892</v>
       </c>
       <c r="M2" t="n">
-        <v>0.775325847455813</v>
+        <v>0.775325847455812</v>
       </c>
     </row>
     <row r="3">
@@ -3001,16 +3004,16 @@
         <v>329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.862219897035732</v>
+        <v>0.862219897035733</v>
       </c>
       <c r="D3" t="n">
-        <v>0.908205747713044</v>
+        <v>0.908205747713045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.954042199517177</v>
+        <v>0.954042199517178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999777290679491</v>
+        <v>0.999777290679492</v>
       </c>
       <c r="G3" t="n">
         <v>1.04504673041538</v>
@@ -3042,7 +3045,7 @@
         <v>414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208951079040268</v>
+        <v>0.208951079040269</v>
       </c>
       <c r="D4" t="n">
         <v>0.352258457298209</v>
@@ -3054,10 +3057,10 @@
         <v>0.637626185681457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.778700986477892</v>
+        <v>0.778700986477893</v>
       </c>
       <c r="H4" t="n">
-        <v>0.916161670223978</v>
+        <v>0.916161670223974</v>
       </c>
       <c r="I4" t="n">
         <v>1.04030143433567</v>
@@ -3083,37 +3086,37 @@
         <v>299</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.00603246257314737</v>
+        <v>-0.00603246257314714</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00817307700962575</v>
+        <v>-0.00817307700962562</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.00401731223633615</v>
+        <v>-0.0040173122363363</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00884141108370216</v>
+        <v>0.008841411083702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0185536316525249</v>
+        <v>0.0185536316525244</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0348511379569309</v>
+        <v>0.0348511379569416</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0491144055192042</v>
+        <v>0.0491144055192031</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0158884337443612</v>
+        <v>-0.0158884337443626</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0269968218736935</v>
+        <v>-0.0269968218736949</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0309725327464013</v>
+        <v>-0.0309725327464027</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0247473616908016</v>
+        <v>-0.024747361690803</v>
       </c>
     </row>
     <row r="6">
@@ -3124,37 +3127,37 @@
         <v>329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0215875557295404</v>
+        <v>0.0215875557295415</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00243460012477293</v>
+        <v>0.00243460012477366</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.00516976067030531</v>
+        <v>-0.00516976067030473</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0111006026909085</v>
+        <v>-0.0111006026909082</v>
       </c>
       <c r="G6" t="n">
         <v>-0.011308675103704</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0205427720403664</v>
+        <v>-0.0205427720403654</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.00704344795204924</v>
+        <v>-0.00704344795204709</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0100589649529376</v>
+        <v>0.0100589649529374</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0141904643560142</v>
+        <v>0.0141904643560138</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00555617000286654</v>
+        <v>0.00555617000286616</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00383915487557131</v>
+        <v>0.00383915487557093</v>
       </c>
     </row>
     <row r="7">
@@ -3165,37 +3168,37 @@
         <v>414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0192735562939919</v>
+        <v>0.0192735562939953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0122369462592202</v>
+        <v>0.0122369462592219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00426015905950212</v>
+        <v>0.00426015905950324</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0098972272027067</v>
+        <v>-0.00989722720270584</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.00675894581901522</v>
+        <v>-0.00675894581901465</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0211947967692543</v>
+        <v>-0.0211947967692585</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00163010140531032</v>
+        <v>-0.0016301014053067</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0348426678906637</v>
+        <v>0.0348426678906639</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0266989725322285</v>
+        <v>0.0266989725322287</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00492496860896487</v>
+        <v>-0.00492496860896468</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0324972170565674</v>
+        <v>-0.0324972170565672</v>
       </c>
     </row>
   </sheetData>
